--- a/data/trans_orig/P1430-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E296743-CDE5-4112-8FAE-3DD56C47332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78F99BE-6462-477F-95E0-D1F4139AE9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72C7E45C-5C77-4B82-8F7D-867F45CA6233}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56AB366D-E47A-4C44-95AB-5A46B9D005C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="241">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -103,45 +103,48 @@
     <t>0,8%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>98,09%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -154,13 +157,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,25%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -169,25 +172,25 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,56%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>97,75%</t>
+    <t>97,89%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,66%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -205,553 +208,535 @@
     <t>0,32%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -1187,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7A5BE-F18A-49D2-BC1A-808C1F9DDCF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5FB21-E6EF-48F2-8D28-3B1416EBC579}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1547,10 +1532,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1565,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1574,10 +1559,10 @@
         <v>6146</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>25</v>
@@ -1631,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,13 +1631,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -1661,13 +1646,13 @@
         <v>523765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>952</v>
@@ -1676,18 +1661,18 @@
         <v>1029292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1705,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1720,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1735,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1735,13 @@
         <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1765,13 +1750,13 @@
         <v>2167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1780,13 +1765,13 @@
         <v>3102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,10 +1786,10 @@
         <v>323111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -1816,10 +1801,10 @@
         <v>338853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
@@ -1831,13 +1816,13 @@
         <v>661964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1837,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -1867,13 +1852,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -1882,18 +1867,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1911,7 +1896,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1926,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1941,7 +1926,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1941,13 @@
         <v>2125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1971,13 +1956,13 @@
         <v>8576</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1989,10 +1974,10 @@
         <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,10 +1992,10 @@
         <v>666595</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
@@ -2022,13 +2007,13 @@
         <v>667620</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1243</v>
@@ -2040,10 +2025,10 @@
         <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2043,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -2073,13 +2058,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -2088,18 +2073,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2117,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2132,7 +2117,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2147,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2147,13 @@
         <v>1146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2183,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2192,13 +2177,13 @@
         <v>1146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,10 +2198,10 @@
         <v>211472</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
@@ -2231,10 +2216,10 @@
         <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
         <v>407</v>
@@ -2243,10 +2228,10 @@
         <v>431063</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -2264,13 +2249,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -2279,13 +2264,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -2294,18 +2279,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2323,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2338,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2353,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2353,13 @@
         <v>2059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2383,13 +2368,13 @@
         <v>989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2398,13 +2383,13 @@
         <v>3049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,10 +2404,10 @@
         <v>271922</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
@@ -2434,10 +2419,10 @@
         <v>277107</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
@@ -2449,13 +2434,13 @@
         <v>549028</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2455,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -2485,13 +2470,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -2500,18 +2485,18 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2529,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2544,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2559,7 +2544,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2559,13 @@
         <v>9367</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2589,13 +2574,13 @@
         <v>4004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2604,13 +2589,13 @@
         <v>13371</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2610,13 @@
         <v>653421</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -2640,13 +2625,13 @@
         <v>689849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="M30" s="7">
         <v>1243</v>
@@ -2676,13 +2661,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -2691,13 +2676,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -2706,13 +2691,13 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2720,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2783,10 +2768,10 @@
         <v>116</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2795,10 +2780,10 @@
         <v>4324</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>119</v>
@@ -2810,10 +2795,10 @@
         <v>9590</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>120</v>
@@ -2837,7 +2822,7 @@
         <v>122</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H34" s="7">
         <v>752</v>
@@ -2846,13 +2831,13 @@
         <v>818254</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M34" s="7">
         <v>1464</v>
@@ -2867,7 +2852,7 @@
         <v>125</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2867,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>756</v>
@@ -2897,13 +2882,13 @@
         <v>822578</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1473</v>
@@ -2912,13 +2897,13 @@
         <v>1601676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +2971,7 @@
         <v>24933</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>128</v>
@@ -3001,7 +2986,7 @@
         <v>22172</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>17</v>
@@ -3019,10 +3004,10 @@
         <v>131</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3037,7 @@
         <v>3532926</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>136</v>
@@ -3064,16 +3049,16 @@
         <v>6462</v>
       </c>
       <c r="N38" s="7">
-        <v>6934773</v>
+        <v>6934774</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>138</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3073,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3296</v>
@@ -3103,28 +3088,28 @@
         <v>3555098</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D296E862-3CAA-4712-83C4-0070A69D9170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ADB49C-6496-4F46-9C59-3D0FB3AAD6CE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3328,7 @@
         <v>922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
@@ -3358,10 +3343,10 @@
         <v>5793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>149</v>
@@ -3394,7 +3379,7 @@
         <v>287781</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>153</v>
@@ -3415,7 +3400,7 @@
         <v>154</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3415,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -3445,13 +3430,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -3460,13 +3445,13 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3519,13 @@
         <v>3231</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3549,13 +3534,13 @@
         <v>2349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3564,13 +3549,13 @@
         <v>5580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3570,13 @@
         <v>499344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>482</v>
@@ -3600,10 +3585,10 @@
         <v>520735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -3615,13 +3600,13 @@
         <v>1020079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3621,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -3651,13 +3636,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -3666,18 +3651,18 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3695,7 +3680,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3710,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3725,7 +3710,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3725,13 @@
         <v>920</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3755,13 +3740,13 @@
         <v>884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3770,13 +3755,13 @@
         <v>1804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,10 +3776,10 @@
         <v>317645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -3806,10 +3791,10 @@
         <v>335425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
@@ -3821,10 +3806,10 @@
         <v>653070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -3842,13 +3827,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -3857,13 +3842,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -3872,18 +3857,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3901,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3916,7 +3901,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3931,7 +3916,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3931,13 @@
         <v>1973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3961,13 +3946,13 @@
         <v>2101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3976,13 +3961,13 @@
         <v>4074</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,10 +3982,10 @@
         <v>367991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
@@ -4012,10 +3997,10 @@
         <v>385182</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
@@ -4027,13 +4012,13 @@
         <v>753173</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4033,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -4063,13 +4048,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -4078,18 +4063,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4107,7 +4092,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4122,7 +4107,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4137,7 +4122,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,7 +4143,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4167,13 +4152,13 @@
         <v>1956</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4182,13 +4167,13 @@
         <v>1956</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,10 +4191,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7">
         <v>221</v>
@@ -4218,10 +4203,10 @@
         <v>216631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
@@ -4233,10 +4218,10 @@
         <v>427852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -4254,13 +4239,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -4269,13 +4254,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -4284,18 +4269,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4313,7 +4298,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4328,7 +4313,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4343,7 +4328,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4343,13 @@
         <v>2976</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4373,13 +4358,13 @@
         <v>997</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4388,13 +4373,13 @@
         <v>3973</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4394,13 @@
         <v>260147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>262</v>
@@ -4424,10 +4409,10 @@
         <v>272118</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
@@ -4439,13 +4424,13 @@
         <v>532265</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4445,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -4475,13 +4460,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -4490,18 +4475,18 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4519,7 +4504,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4534,7 +4519,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4549,7 +4534,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4549,13 @@
         <v>3023</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4585,7 +4570,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4594,13 +4579,13 @@
         <v>4399</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,10 +4600,10 @@
         <v>653535</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>31</v>
@@ -4630,10 +4615,10 @@
         <v>689918</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
@@ -4645,13 +4630,13 @@
         <v>1343453</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4651,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -4681,13 +4666,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -4696,13 +4681,13 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,7 +4710,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4770,13 +4755,13 @@
         <v>7770</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -4785,13 +4770,13 @@
         <v>3134</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -4803,10 +4788,10 @@
         <v>116</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4806,13 @@
         <v>770813</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>752</v>
@@ -4836,13 +4821,13 @@
         <v>823033</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>1495</v>
@@ -4854,10 +4839,10 @@
         <v>121</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4857,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -4887,13 +4872,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -4902,13 +4887,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4961,13 @@
         <v>24764</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -4991,13 +4976,13 @@
         <v>13720</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -5006,13 +4991,13 @@
         <v>38483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,10 +5015,10 @@
         <v>133</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="H38" s="7">
         <v>3326</v>
@@ -5042,13 +5027,13 @@
         <v>3530822</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="M38" s="7">
         <v>6535</v>
@@ -5057,13 +5042,13 @@
         <v>6900409</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5063,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -5093,13 +5078,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -5108,13 +5093,13 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,7 +5128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB0C46C-76DA-47C4-954C-5F01ABBEEC82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37EB0FE-81B7-4886-A4EE-4FD21804864F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5160,7 +5145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5270,10 +5255,10 @@
         <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -5285,10 +5270,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -5300,10 +5285,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,7 +5309,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5339,7 +5324,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5354,7 +5339,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5360,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5390,7 +5375,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5405,7 +5390,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5405,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -5435,13 +5420,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -5450,13 +5435,13 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,10 +5461,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -5491,10 +5476,10 @@
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>1099</v>
@@ -5506,10 +5491,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,7 +5515,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5545,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5560,7 +5545,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,7 +5566,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5596,7 +5581,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5611,7 +5596,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5611,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5641,13 +5626,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -5656,18 +5641,18 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5682,10 +5667,10 @@
         <v>31</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -5697,10 +5682,10 @@
         <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -5712,10 +5697,10 @@
         <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,7 +5721,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5751,7 +5736,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5766,7 +5751,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5772,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5802,7 +5787,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5817,7 +5802,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5817,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -5847,13 +5832,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -5862,18 +5847,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5888,10 +5873,10 @@
         <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" s="7">
         <v>599</v>
@@ -5903,10 +5888,10 @@
         <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>891</v>
@@ -5918,10 +5903,10 @@
         <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5927,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5957,7 +5942,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5972,7 +5957,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5978,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6008,7 +5993,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6023,7 +6008,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6023,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -6053,13 +6038,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -6068,18 +6053,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6094,10 +6079,10 @@
         <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -6109,10 +6094,10 @@
         <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -6124,10 +6109,10 @@
         <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6148,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6214,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6244,13 +6229,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -6259,13 +6244,13 @@
         <v>259513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
@@ -6274,18 +6259,18 @@
         <v>456260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6300,10 +6285,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7">
         <v>460</v>
@@ -6315,10 +6300,10 @@
         <v>31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24" s="7">
         <v>831</v>
@@ -6330,10 +6315,10 @@
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6339,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6369,7 +6354,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6384,7 +6369,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6390,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6420,7 +6405,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6435,7 +6420,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6435,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -6465,13 +6450,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -6480,18 +6465,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6506,10 +6491,10 @@
         <v>31</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>960</v>
@@ -6521,10 +6506,10 @@
         <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -6536,10 +6521,10 @@
         <v>31</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,7 +6545,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6590,7 +6575,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,7 +6596,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6641,7 +6626,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6641,13 @@
         <v>627754</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>960</v>
@@ -6671,13 +6656,13 @@
         <v>804203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1559</v>
@@ -6686,13 +6671,13 @@
         <v>1431957</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,10 +6697,10 @@
         <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7">
         <v>1062</v>
@@ -6727,10 +6712,10 @@
         <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32" s="7">
         <v>1824</v>
@@ -6742,10 +6727,10 @@
         <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,7 +6766,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6796,7 +6781,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6817,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6847,7 +6832,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6847,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -6877,13 +6862,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -6892,13 +6877,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,10 +6903,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36" s="7">
         <v>5367</v>
@@ -6933,25 +6918,25 @@
         <v>31</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" s="7">
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,7 +6972,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7002,7 +6987,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7023,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7053,7 +7038,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7053,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -7083,28 +7068,28 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1430-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78F99BE-6462-477F-95E0-D1F4139AE9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFC524D9-2E86-410E-B0C5-38E28C4745BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56AB366D-E47A-4C44-95AB-5A46B9D005C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47E981B5-E936-40E1-8790-27FDA74676CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -103,640 +103,640 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -1172,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5FB21-E6EF-48F2-8D28-3B1416EBC579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE98D5F2-A41F-4E1D-99A8-913F2622D6BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1532,10 +1532,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1559,13 +1559,13 @@
         <v>6146</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,13 +1580,13 @@
         <v>501493</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>478</v>
@@ -1595,13 +1595,13 @@
         <v>521653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>946</v>
@@ -1610,13 +1610,13 @@
         <v>1023146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1631,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -1646,13 +1646,13 @@
         <v>523765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>952</v>
@@ -1661,18 +1661,18 @@
         <v>1029292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1690,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,7 +1735,7 @@
         <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
@@ -1786,13 +1786,13 @@
         <v>323111</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -1801,13 +1801,13 @@
         <v>338853</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -1816,13 +1816,13 @@
         <v>661964</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1837,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -1852,13 +1852,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -1867,18 +1867,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1896,37 +1896,37 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1941,13 @@
         <v>2125</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1956,13 +1956,13 @@
         <v>8576</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1974,10 +1974,10 @@
         <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1992,13 @@
         <v>666595</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>619</v>
@@ -2007,13 +2007,13 @@
         <v>667620</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1243</v>
@@ -2022,13 +2022,13 @@
         <v>1334215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2043,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -2058,13 +2058,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -2073,18 +2073,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2102,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2147,13 +2147,13 @@
         <v>1146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2177,13 +2177,13 @@
         <v>1146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2198,13 @@
         <v>211472</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -2213,13 +2213,13 @@
         <v>219591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>407</v>
@@ -2228,13 +2228,13 @@
         <v>431063</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2249,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -2264,13 +2264,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -2279,18 +2279,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2308,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2353,13 @@
         <v>2059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2368,13 +2368,13 @@
         <v>989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2383,13 +2383,13 @@
         <v>3049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2404,13 @@
         <v>271922</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>267</v>
@@ -2419,13 +2419,13 @@
         <v>277107</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M26" s="7">
         <v>526</v>
@@ -2434,13 +2434,13 @@
         <v>549028</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2455,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -2470,13 +2470,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -2485,18 +2485,18 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2514,37 +2514,37 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2559,13 @@
         <v>9367</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2574,13 +2574,13 @@
         <v>4004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2589,13 +2589,13 @@
         <v>13371</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2610,13 @@
         <v>653421</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -2625,13 +2625,13 @@
         <v>689849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30" s="7">
         <v>1243</v>
@@ -2640,13 +2640,13 @@
         <v>1343270</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2661,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -2676,13 +2676,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -2691,18 +2691,18 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2720,7 +2720,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2765,13 @@
         <v>5266</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2780,13 +2780,13 @@
         <v>4324</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2795,13 +2795,13 @@
         <v>9590</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2816,13 @@
         <v>773832</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H34" s="7">
         <v>752</v>
@@ -2831,13 +2831,13 @@
         <v>818254</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M34" s="7">
         <v>1464</v>
@@ -2846,13 +2846,13 @@
         <v>1592086</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>125</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2867,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>756</v>
@@ -2882,13 +2882,13 @@
         <v>822578</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>1473</v>
@@ -2897,13 +2897,13 @@
         <v>1601676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>24933</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -2986,13 +2986,13 @@
         <v>22172</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -3001,13 +3001,13 @@
         <v>47104</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3022,13 @@
         <v>3401846</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H38" s="7">
         <v>3275</v>
@@ -3037,28 +3037,28 @@
         <v>3532926</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M38" s="7">
         <v>6462</v>
       </c>
       <c r="N38" s="7">
-        <v>6934774</v>
+        <v>6934773</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>3296</v>
@@ -3088,33 +3088,33 @@
         <v>3555098</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ADB49C-6496-4F46-9C59-3D0FB3AAD6CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43752FD0-D2BE-4BB4-A0C4-CCA0E4567B4A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3155,7 +3155,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3268,7 +3268,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3313,13 @@
         <v>4871</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3328,13 +3328,13 @@
         <v>922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3343,13 +3343,13 @@
         <v>5793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3364,13 @@
         <v>288890</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>276</v>
@@ -3379,13 +3379,13 @@
         <v>287781</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>538</v>
@@ -3394,13 +3394,13 @@
         <v>576671</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3415,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -3430,13 +3430,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -3445,13 +3445,13 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3534,13 +3534,13 @@
         <v>2349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3549,13 +3549,13 @@
         <v>5580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3570,13 @@
         <v>499344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>482</v>
@@ -3585,13 +3585,13 @@
         <v>520735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
@@ -3600,13 +3600,13 @@
         <v>1020079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3621,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -3636,13 +3636,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -3651,18 +3651,18 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3680,7 +3680,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3725,13 @@
         <v>920</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3740,13 +3740,13 @@
         <v>884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3755,13 +3755,13 @@
         <v>1804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3776,13 @@
         <v>317645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -3791,13 +3791,13 @@
         <v>335425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7">
         <v>665</v>
@@ -3806,13 +3806,13 @@
         <v>653070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3827,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -3842,13 +3842,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -3857,18 +3857,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3886,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3931,13 @@
         <v>1973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3946,13 +3946,13 @@
         <v>2101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3961,13 +3961,13 @@
         <v>4074</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3982,13 @@
         <v>367991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>357</v>
@@ -3997,13 +3997,13 @@
         <v>385182</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>709</v>
@@ -4012,13 +4012,13 @@
         <v>753173</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4033,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -4048,13 +4048,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -4063,18 +4063,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4092,7 +4092,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,7 +4143,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4152,13 +4152,13 @@
         <v>1956</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4167,13 +4167,13 @@
         <v>1956</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4188,13 @@
         <v>211221</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>221</v>
@@ -4203,13 +4203,13 @@
         <v>216631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M22" s="7">
         <v>433</v>
@@ -4218,13 +4218,13 @@
         <v>427852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4239,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -4254,13 +4254,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -4269,18 +4269,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4298,37 +4298,37 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4343,13 @@
         <v>2976</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4358,13 +4358,13 @@
         <v>997</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4373,13 +4373,13 @@
         <v>3973</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4394,13 @@
         <v>260147</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>262</v>
@@ -4409,13 +4409,13 @@
         <v>272118</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M26" s="7">
         <v>518</v>
@@ -4424,13 +4424,13 @@
         <v>532265</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4445,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -4460,13 +4460,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -4475,18 +4475,18 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4504,37 +4504,37 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4549,13 @@
         <v>3023</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4570,7 +4570,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4579,13 +4579,13 @@
         <v>4399</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4600,13 @@
         <v>653535</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>645</v>
@@ -4615,13 +4615,13 @@
         <v>689918</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>1223</v>
@@ -4630,13 +4630,13 @@
         <v>1343453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4651,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -4666,13 +4666,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -4681,18 +4681,18 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4710,7 +4710,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4755,13 @@
         <v>7770</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -4770,13 +4770,13 @@
         <v>3134</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -4785,13 +4785,13 @@
         <v>10903</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4806,13 @@
         <v>770813</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>752</v>
@@ -4821,13 +4821,13 @@
         <v>823033</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>1495</v>
@@ -4836,13 +4836,13 @@
         <v>1593847</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4857,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -4872,13 +4872,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -4887,13 +4887,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4961,13 @@
         <v>24764</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -4976,13 +4976,13 @@
         <v>13720</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4991,13 +4991,13 @@
         <v>38483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5012,13 @@
         <v>3369586</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>3326</v>
@@ -5027,13 +5027,13 @@
         <v>3530822</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M38" s="7">
         <v>6535</v>
@@ -5042,13 +5042,13 @@
         <v>6900409</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5063,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -5078,13 +5078,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -5093,18 +5093,18 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5128,7 +5128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37EB0FE-81B7-4886-A4EE-4FD21804864F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FD8535-CB44-4BE1-8DC5-E0A8F3AB258A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5145,7 +5145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5252,13 +5252,13 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -5267,13 +5267,13 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -5282,13 +5282,13 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5309,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5360,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5405,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -5420,13 +5420,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -5435,13 +5435,13 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5458,13 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -5473,13 +5473,13 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>1099</v>
@@ -5488,13 +5488,13 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,7 +5515,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,7 +5566,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5611,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5626,13 +5626,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -5641,18 +5641,18 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5664,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -5679,13 +5679,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -5694,13 +5694,13 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,7 +5721,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5736,7 +5736,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,7 +5772,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5817,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -5832,13 +5832,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -5847,18 +5847,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5870,13 +5870,13 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>599</v>
@@ -5885,13 +5885,13 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>891</v>
@@ -5900,13 +5900,13 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,7 +5927,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +5978,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6023,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -6038,13 +6038,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -6053,18 +6053,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6076,13 +6076,13 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -6091,13 +6091,13 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -6106,13 +6106,13 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6133,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6184,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6199,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6229,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -6244,13 +6244,13 @@
         <v>259513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
@@ -6259,18 +6259,18 @@
         <v>456260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6282,13 +6282,13 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24" s="7">
         <v>460</v>
@@ -6297,13 +6297,13 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M24" s="7">
         <v>831</v>
@@ -6312,13 +6312,13 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,22 +6339,22 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6390,22 +6390,22 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6435,13 +6435,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -6450,13 +6450,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -6465,18 +6465,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6488,13 +6488,13 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28" s="7">
         <v>960</v>
@@ -6503,13 +6503,13 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -6518,13 +6518,13 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,7 +6545,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6575,7 +6575,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,7 +6596,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6641,13 @@
         <v>627754</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>960</v>
@@ -6656,13 +6656,13 @@
         <v>804203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>1559</v>
@@ -6671,18 +6671,18 @@
         <v>1431957</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6694,13 +6694,13 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32" s="7">
         <v>1062</v>
@@ -6709,13 +6709,13 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M32" s="7">
         <v>1824</v>
@@ -6724,13 +6724,13 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,7 +6751,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6817,7 +6817,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6847,13 +6847,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -6862,13 +6862,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -6877,13 +6877,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6900,13 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36" s="7">
         <v>5367</v>
@@ -6915,13 +6915,13 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M36" s="7">
         <v>8743</v>
@@ -6930,13 +6930,13 @@
         <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7053,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -7068,13 +7068,13 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
@@ -7083,18 +7083,18 @@
         <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1430-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2355B670-B2F5-4E2F-9DB2-AD6D68659E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57C8906-F560-47B3-9B04-7C316DFD44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2338FFB7-343D-4098-8EDE-3DCBA3E34BB1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{78D12ADE-C2D7-4DFB-8F18-B0907ED06686}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="223">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -72,12 +72,63 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -93,9 +144,6 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,42%</t>
   </si>
   <si>
@@ -120,18 +168,12 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,4%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -180,493 +222,484 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -1084,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A441414A-2DCF-4351-9181-F46F52C8E966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146752C4-D12B-499F-88FF-B5D2E5C1690C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1204,86 +1237,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3079</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3079</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D5" s="7">
+        <v>294738</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I5" s="7">
+        <v>284166</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N5" s="7">
+        <v>578904</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,48 +1337,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1345,13 +1396,13 @@
         <v>4034</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1360,13 +1411,13 @@
         <v>2112</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1375,19 +1426,19 @@
         <v>6146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>468</v>
@@ -1396,13 +1447,13 @@
         <v>501493</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -1411,13 +1462,13 @@
         <v>521653</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>946</v>
@@ -1426,13 +1477,13 @@
         <v>1023146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1498,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1462,13 +1513,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1477,18 +1528,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1500,13 +1551,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1515,13 +1566,13 @@
         <v>2167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1530,19 +1581,19 @@
         <v>3102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>318</v>
@@ -1551,13 +1602,13 @@
         <v>323111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -1566,13 +1617,13 @@
         <v>338853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>633</v>
@@ -1581,13 +1632,13 @@
         <v>661964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1653,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1617,13 +1668,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1632,18 +1683,18 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1655,94 +1706,94 @@
         <v>2125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>8576</v>
+        <v>5497</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>10701</v>
+        <v>7622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7">
-        <v>666595</v>
+        <v>371857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>619</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>667620</v>
+        <v>383454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
-        <v>1243</v>
+        <v>708</v>
       </c>
       <c r="N14" s="7">
-        <v>1334215</v>
+        <v>755311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,54 +1802,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1810,13 +1861,13 @@
         <v>1146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1825,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1840,19 +1891,19 @@
         <v>1146</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>195</v>
@@ -1861,13 +1912,13 @@
         <v>211472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -1876,13 +1927,13 @@
         <v>219591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -1891,13 +1942,13 @@
         <v>431063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1963,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -1927,13 +1978,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -1942,18 +1993,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1965,13 +2016,13 @@
         <v>2059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1980,13 +2031,13 @@
         <v>989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1995,19 +2046,19 @@
         <v>3049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>259</v>
@@ -2016,13 +2067,13 @@
         <v>271922</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -2031,13 +2082,13 @@
         <v>277107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2046,13 +2097,13 @@
         <v>549028</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2118,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2082,13 +2133,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2097,18 +2148,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2120,13 +2171,13 @@
         <v>9367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2135,13 +2186,13 @@
         <v>4004</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -2150,19 +2201,19 @@
         <v>13371</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>611</v>
@@ -2171,13 +2222,13 @@
         <v>653421</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -2186,13 +2237,13 @@
         <v>689849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>1243</v>
@@ -2201,13 +2252,13 @@
         <v>1343270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2273,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2237,13 +2288,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2252,18 +2303,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2275,13 +2326,13 @@
         <v>5266</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2290,13 +2341,13 @@
         <v>4324</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2305,19 +2356,19 @@
         <v>9590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>712</v>
@@ -2326,13 +2377,13 @@
         <v>773832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -2341,13 +2392,13 @@
         <v>818254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2356,13 +2407,13 @@
         <v>1592086</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2428,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -2392,13 +2443,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -2407,13 +2458,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2481,13 @@
         <v>24933</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -2445,13 +2496,13 @@
         <v>22172</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -2460,19 +2511,19 @@
         <v>47104</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3187</v>
@@ -2481,13 +2532,13 @@
         <v>3401846</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H29" s="7">
         <v>3275</v>
@@ -2496,13 +2547,13 @@
         <v>3532926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>6462</v>
@@ -2511,13 +2562,13 @@
         <v>6934773</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2583,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -2547,13 +2598,13 @@
         <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M30" s="7">
         <v>6505</v>
@@ -2562,18 +2613,18 @@
         <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B48554-D5E3-4486-BCF7-6EC595EF6CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A50BA0F-124B-4D4A-86B9-2F7C7577B960}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2614,7 +2665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2721,13 +2772,13 @@
         <v>4871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2736,13 +2787,13 @@
         <v>922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2751,19 +2802,19 @@
         <v>5793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>262</v>
@@ -2772,13 +2823,13 @@
         <v>288890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>276</v>
@@ -2787,13 +2838,13 @@
         <v>287781</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -2802,13 +2853,13 @@
         <v>576671</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2874,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -2838,13 +2889,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -2853,18 +2904,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2876,13 +2927,13 @@
         <v>3231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2891,13 +2942,13 @@
         <v>2349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2906,19 +2957,19 @@
         <v>5580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>472</v>
@@ -2927,13 +2978,13 @@
         <v>499344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>482</v>
@@ -2942,13 +2993,13 @@
         <v>520735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>954</v>
@@ -2957,13 +3008,13 @@
         <v>1020079</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +3029,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -2993,13 +3044,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3008,18 +3059,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3031,13 +3082,13 @@
         <v>920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3046,13 +3097,13 @@
         <v>884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3061,19 +3112,19 @@
         <v>1804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>334</v>
@@ -3082,13 +3133,13 @@
         <v>317645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -3097,13 +3148,13 @@
         <v>335425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -3112,13 +3163,13 @@
         <v>653070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3184,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3148,13 +3199,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3163,18 +3214,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3186,13 +3237,13 @@
         <v>1973</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3201,13 +3252,13 @@
         <v>2101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3216,19 +3267,19 @@
         <v>4074</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>352</v>
@@ -3237,13 +3288,13 @@
         <v>367991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -3252,13 +3303,13 @@
         <v>385182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>709</v>
@@ -3267,13 +3318,13 @@
         <v>753173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3339,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3303,13 +3354,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3318,18 +3369,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3341,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3356,13 +3407,13 @@
         <v>1956</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3371,19 +3422,19 @@
         <v>1956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>212</v>
@@ -3392,13 +3443,13 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -3407,13 +3458,13 @@
         <v>216631</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
@@ -3422,13 +3473,13 @@
         <v>427852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3494,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3458,13 +3509,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3473,18 +3524,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3496,13 +3547,13 @@
         <v>2976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3511,13 +3562,13 @@
         <v>997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3526,19 +3577,19 @@
         <v>3973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>256</v>
@@ -3547,13 +3598,13 @@
         <v>260147</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -3562,13 +3613,13 @@
         <v>272118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -3577,13 +3628,13 @@
         <v>532265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3649,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3613,13 +3664,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3628,18 +3679,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3651,13 +3702,13 @@
         <v>3023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3666,13 +3717,13 @@
         <v>1376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3681,19 +3732,19 @@
         <v>4399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>578</v>
@@ -3702,13 +3753,13 @@
         <v>653535</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <v>645</v>
@@ -3717,13 +3768,13 @@
         <v>689918</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>1223</v>
@@ -3732,13 +3783,13 @@
         <v>1343453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3804,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3768,13 +3819,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3783,18 +3834,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3806,13 +3857,13 @@
         <v>7770</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3821,13 +3872,13 @@
         <v>3134</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3836,19 +3887,19 @@
         <v>10903</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>743</v>
@@ -3857,13 +3908,13 @@
         <v>770813</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -3872,13 +3923,13 @@
         <v>823033</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
         <v>1495</v>
@@ -3887,13 +3938,13 @@
         <v>1593847</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3959,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -3923,13 +3974,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -3938,13 +3989,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +4012,13 @@
         <v>24764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3976,13 +4027,13 @@
         <v>13720</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -3991,19 +4042,19 @@
         <v>38483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3209</v>
@@ -4012,13 +4063,13 @@
         <v>3369586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H29" s="7">
         <v>3326</v>
@@ -4027,13 +4078,13 @@
         <v>3530822</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>6535</v>
@@ -4042,13 +4093,13 @@
         <v>6900409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4114,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4078,13 +4129,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4093,18 +4144,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
